--- a/Tabelas/tabelas.xlsx
+++ b/Tabelas/tabelas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a1c4728a6baa2a1/Documentos/GitHub/complexidade_terminologica/Tabelas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4F938C9675D289486C2C6E00411B62962F9AAD56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167D6F04-1017-4947-9733-2C884039C747}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,305 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>empresas</t>
+  </si>
+  <si>
+    <t>nomenclatura</t>
+  </si>
+  <si>
+    <t>1.02.01.10.03</t>
+  </si>
+  <si>
+    <t>2.01.05.02.05</t>
+  </si>
+  <si>
+    <t>1.02.01.10.05</t>
+  </si>
+  <si>
+    <t>2.02.02.02.03</t>
+  </si>
+  <si>
+    <t>1.02.01.10.04</t>
+  </si>
+  <si>
+    <t>2.02.02.02.05</t>
+  </si>
+  <si>
+    <t>1.01.08.03.01</t>
+  </si>
+  <si>
+    <t>2.02.02.02.04</t>
+  </si>
+  <si>
+    <t>1.02.01.10.06</t>
+  </si>
+  <si>
+    <t>2.01.05.02.06</t>
+  </si>
+  <si>
+    <t>1.01.08.03.02</t>
+  </si>
+  <si>
+    <t>2.01.05.02.04</t>
+  </si>
+  <si>
+    <t>1.01.08.03.03</t>
+  </si>
+  <si>
+    <t>2.02.02.02.06</t>
+  </si>
+  <si>
+    <t>1.02.01.10.07</t>
+  </si>
+  <si>
+    <t>2.01.05.02.07</t>
+  </si>
+  <si>
+    <t>1.01.08.03.04</t>
+  </si>
+  <si>
+    <t>2.01.05.02.08</t>
+  </si>
+  <si>
+    <t>1.02.04.01.02</t>
+  </si>
+  <si>
+    <t>2.02.02.02.07</t>
+  </si>
+  <si>
+    <t>Terminologia</t>
+  </si>
+  <si>
+    <t>Contas diferentes Ativo</t>
+  </si>
+  <si>
+    <t>Uso Ativo</t>
+  </si>
+  <si>
+    <t>Contas diferentes Passivo</t>
+  </si>
+  <si>
+    <t>Uso Passivo</t>
+  </si>
+  <si>
+    <t>Instrumentos Financeiros Derivativos</t>
+  </si>
+  <si>
+    <t>Outras contas a pagar</t>
+  </si>
+  <si>
+    <t>Outras Contas a Pagar</t>
+  </si>
+  <si>
+    <t>Outras Contas a Receber</t>
+  </si>
+  <si>
+    <t>Outros Ativos</t>
+  </si>
+  <si>
+    <t>Outros créditos</t>
+  </si>
+  <si>
+    <t>Outros Passivos</t>
+  </si>
+  <si>
+    <t>Outros ativos</t>
+  </si>
+  <si>
+    <t>Partes relacionadas</t>
+  </si>
+  <si>
+    <t>Tributos a recolher</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Ativo (1)</t>
+  </si>
+  <si>
+    <t>Ativo (2)</t>
+  </si>
+  <si>
+    <t>Passivo (1)</t>
+  </si>
+  <si>
+    <t>Passivo (2)</t>
+  </si>
+  <si>
+    <t>Qtde de terminologias diferentes</t>
+  </si>
+  <si>
+    <t>Qtde de term. desconsiderando diferenças entre maiúsculo e minúsculo</t>
+  </si>
+  <si>
+    <t>Qtde de term. desconsiderando diferenças de acentuação</t>
+  </si>
+  <si>
+    <t>Qtde de term. desconsiderando diferenças de acentuação e
+          maiúsculo/minúsculo</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Média Passivo</t>
+  </si>
+  <si>
+    <t>Mínimo Passivo</t>
+  </si>
+  <si>
+    <t>Máximo Passivo</t>
+  </si>
+  <si>
+    <t>Mediana Passivo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Cod.</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Terminologias</t>
+  </si>
+  <si>
+    <t>1.01.02.01</t>
+  </si>
+  <si>
+    <t>Aplicações Financeiras Avaliadas a Valor Justo através do Resultado</t>
+  </si>
+  <si>
+    <t>1.01.02.02</t>
+  </si>
+  <si>
+    <t>Aplicações Financeiras Avaliadas a Valor Justo através de Outros Resultados Abrangentes</t>
+  </si>
+  <si>
+    <t>1.01.02.03</t>
+  </si>
+  <si>
+    <t>Aplicações Financeiras Avaliadas ao Custo Amortizado</t>
+  </si>
+  <si>
+    <t>1.01.03.01</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>1.01.03.02</t>
+  </si>
+  <si>
+    <t>2.01.01.01</t>
+  </si>
+  <si>
+    <t>Obrigações Sociais</t>
+  </si>
+  <si>
+    <t>2.01.01.02</t>
+  </si>
+  <si>
+    <t>Obrigações Trabalhistas</t>
+  </si>
+  <si>
+    <t>2.01.02.01</t>
+  </si>
+  <si>
+    <t>Fornecedores Nacionais</t>
+  </si>
+  <si>
+    <t>1.01.02.01.01</t>
+  </si>
+  <si>
+    <t>Títulos para Negociação</t>
+  </si>
+  <si>
+    <t>1.01.02.01.02</t>
+  </si>
+  <si>
+    <t>Títulos Designados a Valor Justo</t>
+  </si>
+  <si>
+    <t>1.02.01.01.01</t>
+  </si>
+  <si>
+    <t>1.02.01.09.01</t>
+  </si>
+  <si>
+    <t>Créditos com Coligadas</t>
+  </si>
+  <si>
+    <t>1.02.01.10.01</t>
+  </si>
+  <si>
+    <t>Ativos Não-Correntes a Venda</t>
+  </si>
+  <si>
+    <t>2.01.03.01.01</t>
+  </si>
+  <si>
+    <t>Imposto de Renda e Contribuição Social a Pagar</t>
+  </si>
+  <si>
+    <t>2.01.04.01.01</t>
+  </si>
+  <si>
+    <t>Em Moeda Nacional</t>
+  </si>
+  <si>
+    <t>2.01.04.01.02</t>
+  </si>
+  <si>
+    <t>Em Moeda Estrangeira</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,24 +355,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -112,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -146,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -180,9 +489,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -355,50 +665,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cod</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>empresas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>nomenclatura</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cod</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>empresas</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nomenclatura</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.02.01.10.03</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>411</v>
@@ -406,10 +702,8 @@
       <c r="C2">
         <v>167</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.01.05.02.05</t>
-        </is>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
       <c r="E2">
         <v>412</v>
@@ -418,11 +712,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.02.01.10.05</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>317</v>
@@ -430,10 +722,8 @@
       <c r="C3">
         <v>162</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.02.02.02.03</t>
-        </is>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
         <v>415</v>
@@ -442,11 +732,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1.02.01.10.04</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>375</v>
@@ -454,10 +742,8 @@
       <c r="C4">
         <v>161</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02.02.02.05</t>
-        </is>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
         <v>354</v>
@@ -466,11 +752,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1.01.08.03.01</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>329</v>
@@ -478,10 +762,8 @@
       <c r="C5">
         <v>151</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.02.02.02.04</t>
-        </is>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5">
         <v>388</v>
@@ -490,11 +772,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1.02.01.10.06</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>225</v>
@@ -502,10 +782,8 @@
       <c r="C6">
         <v>141</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.01.05.02.06</t>
-        </is>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6">
         <v>362</v>
@@ -514,11 +792,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1.01.08.03.02</t>
-        </is>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>315</v>
@@ -526,10 +802,8 @@
       <c r="C7">
         <v>136</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.01.05.02.04</t>
-        </is>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="E7">
         <v>431</v>
@@ -538,11 +812,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1.01.08.03.03</t>
-        </is>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>223</v>
@@ -550,10 +822,8 @@
       <c r="C8">
         <v>126</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.02.02.02.06</t>
-        </is>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8">
         <v>305</v>
@@ -562,11 +832,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1.02.01.10.07</t>
-        </is>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>145</v>
@@ -574,10 +842,8 @@
       <c r="C9">
         <v>99</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.01.05.02.07</t>
-        </is>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
       <c r="E9">
         <v>295</v>
@@ -586,11 +852,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1.01.08.03.04</t>
-        </is>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>142</v>
@@ -598,10 +862,8 @@
       <c r="C10">
         <v>96</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.01.05.02.08</t>
-        </is>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
       <c r="E10">
         <v>238</v>
@@ -610,11 +872,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1.02.04.01.02</t>
-        </is>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>229</v>
@@ -622,10 +882,8 @@
       <c r="C11">
         <v>81</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.02.02.02.07</t>
-        </is>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11">
         <v>229</v>
@@ -640,45 +898,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Terminologia</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Contas diferentes Ativo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Uso Ativo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Contas diferentes Passivo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Uso Passivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Instrumentos Financeiros Derivativos</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
         <v>19</v>
@@ -693,11 +939,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Outras contas a pagar</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -706,11 +950,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Outras Contas a Pagar</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -719,11 +961,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Outras Contas a Receber</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -732,11 +972,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Outros Ativos</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -745,11 +983,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Outros créditos</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -758,11 +994,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Outros Passivos</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
       </c>
       <c r="D8">
         <v>23</v>
@@ -771,11 +1005,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Outros ativos</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -784,11 +1016,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Partes relacionadas</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -803,11 +1033,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tributos a recolher</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -822,115 +1050,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ativo (1)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ativo (2)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Passivo (1)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Passivo (2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Qtde de terminologias diferentes</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>1750</v>
+        <v>1727</v>
       </c>
       <c r="C2">
-        <v>3293</v>
+        <v>3244</v>
       </c>
       <c r="D2">
-        <v>2951</v>
+        <v>2928</v>
       </c>
       <c r="E2">
-        <v>5276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Qtde de term. desconsiderando diferenças entre maiúsculo e minúsculo</t>
-        </is>
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>1709</v>
+        <v>1686</v>
       </c>
       <c r="C3">
-        <v>3260</v>
+        <v>3211</v>
       </c>
       <c r="D3">
+        <v>2880</v>
+      </c>
+      <c r="E3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1472</v>
+      </c>
+      <c r="C4">
         <v>2903</v>
       </c>
-      <c r="E3">
-        <v>5253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Qtde de term. desconsiderando diferenças de acentuação</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>1492</v>
-      </c>
-      <c r="C4">
-        <v>2952</v>
-      </c>
       <c r="D4">
-        <v>2531</v>
+        <v>2511</v>
       </c>
       <c r="E4">
-        <v>4787</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Qtde de term. desconsiderando diferenças de acentuação e
-          maiúsculo/minúsculo</t>
-        </is>
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>1447</v>
+        <v>1428</v>
       </c>
       <c r="C5">
-        <v>2917</v>
+        <v>2868</v>
       </c>
       <c r="D5">
-        <v>2478</v>
+        <v>2458</v>
       </c>
       <c r="E5">
-        <v>4756</v>
+        <v>4703</v>
       </c>
     </row>
   </sheetData>
@@ -939,65 +1148,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nível</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mínimo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Máximo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mediana</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Média Passivo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Mínimo Passivo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Máximo Passivo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mediana Passivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1024,11 +1218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1055,76 +1247,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>4.33</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.78</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>8.26</v>
+        <v>9.02</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>16.97</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17.940000000000001</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1133,10 +1319,10 @@
         <v>167</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>28.02</v>
+        <v>29.38</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1145,7 +1331,7 @@
         <v>259</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1154,148 +1340,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cod.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Empresas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Terminologias</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.01.02.01</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>452</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras Avaliadas a Valor Justo através do Resultado</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.01.02.02</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>452</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras Avaliadas a Valor Justo através de Outros Resultados Abrangentes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1.01.02.03</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>452</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras Avaliadas ao Custo Amortizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1.01.06.01</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tributos Correntes a Recuperar</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1.01.08.01</t>
-        </is>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ativos Não-Correntes a Venda</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2.01.03.01</t>
-        </is>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
       </c>
       <c r="B7">
         <v>450</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Obrigações Fiscais Federais</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2.01.03.02</t>
-        </is>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
       </c>
       <c r="B8">
         <v>450</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Obrigações Fiscais Estaduais</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2.01.03.03</t>
-        </is>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
       </c>
       <c r="B9">
         <v>450</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Obrigações Fiscais Municipais</t>
-        </is>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1304,148 +1452,110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cod.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Empresas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Terminologias</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.01.02.01.01</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>452</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Títulos para Negociação</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.01.02.01.02</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>452</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Títulos Designados a Valor Justo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1.02.01.01.01</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
       </c>
       <c r="B4">
-        <v>452</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Títulos Designados a Valor Justo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1.02.01.09.01</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Créditos com Coligadas</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1.02.01.10.02</t>
-        </is>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>452</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ativos de Operações Descontinuadas</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2.01.03.01.01</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
       </c>
       <c r="B7">
         <v>450</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Imposto de Renda e Contribuição Social a Pagar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2.01.04.01.01</t>
-        </is>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
       </c>
       <c r="B8">
         <v>450</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Em Moeda Nacional</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2.01.04.01.02</t>
-        </is>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
       </c>
       <c r="B9">
         <v>450</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Em Moeda Estrangeira</t>
-        </is>
+      <c r="C9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Tabelas/tabelas.xlsx
+++ b/Tabelas/tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a1c4728a6baa2a1/Documentos/GitHub/complexidade_terminologica/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_4F938C9675D289486C2C6E00411B62962F9AAD56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167D6F04-1017-4947-9733-2C884039C747}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FE11B3427502884310ED750BA95A75E66F18A824" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A5AB4C-FBD0-489D-877E-D8BEDF37F14F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
   <si>
     <t>Cod</t>
   </si>
@@ -111,34 +111,115 @@
     <t>Uso Passivo</t>
   </si>
   <si>
-    <t>Instrumentos Financeiros Derivativos</t>
-  </si>
-  <si>
-    <t>Outras contas a pagar</t>
-  </si>
-  <si>
-    <t>Outras Contas a Pagar</t>
-  </si>
-  <si>
-    <t>Outras Contas a Receber</t>
-  </si>
-  <si>
-    <t>Outros Ativos</t>
-  </si>
-  <si>
-    <t>Outros créditos</t>
-  </si>
-  <si>
-    <t>Outros Passivos</t>
-  </si>
-  <si>
-    <t>Outros ativos</t>
-  </si>
-  <si>
-    <t>Partes relacionadas</t>
-  </si>
-  <si>
-    <t>Tributos a recolher</t>
+    <t>adiantamento a fornecedores</t>
+  </si>
+  <si>
+    <t>adiantamento de clientes</t>
+  </si>
+  <si>
+    <t>adiantamentos a fornecedores</t>
+  </si>
+  <si>
+    <t>adiantamentos de clientes</t>
+  </si>
+  <si>
+    <t>aplicações financeiras</t>
+  </si>
+  <si>
+    <t>arrendamento mercantil</t>
+  </si>
+  <si>
+    <t>arrendamentos a pagar</t>
+  </si>
+  <si>
+    <t>caixa restrito</t>
+  </si>
+  <si>
+    <t>contas a pagar</t>
+  </si>
+  <si>
+    <t>contas a receber</t>
+  </si>
+  <si>
+    <t>créditos com partes relacionadas</t>
+  </si>
+  <si>
+    <t>depósitos judiciais</t>
+  </si>
+  <si>
+    <t>despesas antecipadas</t>
+  </si>
+  <si>
+    <t>dividendos a receber</t>
+  </si>
+  <si>
+    <t>encargos setoriais</t>
+  </si>
+  <si>
+    <t>imposto de renda e contribuição social a recuperar</t>
+  </si>
+  <si>
+    <t>impostos a recuperar</t>
+  </si>
+  <si>
+    <t>impostos e contribuições a recolher</t>
+  </si>
+  <si>
+    <t>instrumentos financeiros derivativos</t>
+  </si>
+  <si>
+    <t>obrigações tributárias</t>
+  </si>
+  <si>
+    <t>outras contas a pagar</t>
+  </si>
+  <si>
+    <t>outras contas a receber</t>
+  </si>
+  <si>
+    <t>outras obrigações</t>
+  </si>
+  <si>
+    <t>outras provisões</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>outros ativos</t>
+  </si>
+  <si>
+    <t>outros ativos não circulantes</t>
+  </si>
+  <si>
+    <t>outros créditos</t>
+  </si>
+  <si>
+    <t>outros passivos</t>
+  </si>
+  <si>
+    <t>partes relacionadas</t>
+  </si>
+  <si>
+    <t>passivo de arrendamento</t>
+  </si>
+  <si>
+    <t>passivos de arrendamento</t>
+  </si>
+  <si>
+    <t>receita diferida</t>
+  </si>
+  <si>
+    <t>receitas diferidas</t>
+  </si>
+  <si>
+    <t>tributos a recolher</t>
+  </si>
+  <si>
+    <t>tributos a recuperar</t>
+  </si>
+  <si>
+    <t>títulos e valores mobiliários</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -245,6 +326,9 @@
   </si>
   <si>
     <t>1.01.03.02</t>
+  </si>
+  <si>
+    <t>Outras Contas a Receber</t>
   </si>
   <si>
     <t>2.01.01.01</t>
@@ -314,10 +398,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,13 +435,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,11 +977,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="5" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -927,16 +1011,10 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,32 +1022,32 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>92</v>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>925</v>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,21 +1055,21 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>98</v>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +1077,10 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,38 +1088,347 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>61</v>
-      </c>
       <c r="D10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="D11">
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="C12">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>45</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>223</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>569</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>102</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1059,24 +1446,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>1727</v>
@@ -1093,7 +1480,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1686</v>
@@ -1110,7 +1497,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>1472</v>
@@ -1127,7 +1514,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>1428</v>
@@ -1151,47 +1538,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1220,7 +1602,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1249,7 +1631,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1278,9 +1660,9 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5">
         <v>4.78</v>
       </c>
       <c r="C5">
@@ -1307,9 +1689,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3">
+        <v>87</v>
+      </c>
+      <c r="B6">
         <v>17.940000000000001</v>
       </c>
       <c r="C6">
@@ -1349,101 +1731,101 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1461,101 +1843,101 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
